--- a/Class_I/Result.xlsx
+++ b/Class_I/Result.xlsx
@@ -28,274 +28,274 @@
     <t>Roll No</t>
   </si>
   <si>
-    <t>Formative Assessment -I_Assamese</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Assamese_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Assamese_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_EVS</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_EVS_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_EVS_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Hindi</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Hindi_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Hindi_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_English II</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_English II_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_English II_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Computer</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Computer_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Computer_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_English I</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_English I_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_English I_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Maths</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Maths_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Maths_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Drawing</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Drawing_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Drawing_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Moral Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Moral Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Moral Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_General Knowledge</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_General Knowledge_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_General Knowledge_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_Assamese</t>
-  </si>
-  <si>
-    <t>F.A-2_Assamese_total</t>
-  </si>
-  <si>
-    <t>F.A-2_Assamese_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_EVS</t>
-  </si>
-  <si>
-    <t>F.A-2_EVS_total</t>
-  </si>
-  <si>
-    <t>F.A-2_EVS_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_Hindi</t>
-  </si>
-  <si>
-    <t>F.A-2_Hindi_total</t>
-  </si>
-  <si>
-    <t>F.A-2_Hindi_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_English II</t>
-  </si>
-  <si>
-    <t>F.A-2_English II_total</t>
-  </si>
-  <si>
-    <t>F.A-2_English II_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_Computer</t>
-  </si>
-  <si>
-    <t>F.A-2_Computer_total</t>
-  </si>
-  <si>
-    <t>F.A-2_Computer_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_English I</t>
-  </si>
-  <si>
-    <t>F.A-2_English I_total</t>
-  </si>
-  <si>
-    <t>F.A-2_English I_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_Maths</t>
-  </si>
-  <si>
-    <t>F.A-2_Maths_total</t>
-  </si>
-  <si>
-    <t>F.A-2_Maths_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_Drawing</t>
-  </si>
-  <si>
-    <t>F.A-2_Drawing_total</t>
-  </si>
-  <si>
-    <t>F.A-2_Drawing_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_Moral Science</t>
-  </si>
-  <si>
-    <t>F.A-2_Moral Science_total</t>
-  </si>
-  <si>
-    <t>F.A-2_Moral Science_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_General Knowledge</t>
-  </si>
-  <si>
-    <t>F.A-2_General Knowledge_total</t>
-  </si>
-  <si>
-    <t>F.A-2_General Knowledge_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Assamese</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Assamese_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Assamese_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_EVS</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_EVS_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_EVS_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Hindi</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Hindi_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Hindi_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_English II</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_English II_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_English II_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Computer</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Computer_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Computer_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_English I</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_English I_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_English I_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Maths</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Maths_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Maths_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Drawing</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Drawing_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Drawing_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Moral Science</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Moral Science_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Moral Science_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_General Knowledge</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_General Knowledge_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_General Knowledge_pass</t>
+    <t>FA-I_Assamese</t>
+  </si>
+  <si>
+    <t>FA-I_Assamese_total</t>
+  </si>
+  <si>
+    <t>FA-I_Assamese_pass</t>
+  </si>
+  <si>
+    <t>FA-I_EVS</t>
+  </si>
+  <si>
+    <t>FA-I_EVS_total</t>
+  </si>
+  <si>
+    <t>FA-I_EVS_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Hindi</t>
+  </si>
+  <si>
+    <t>FA-I_Hindi_total</t>
+  </si>
+  <si>
+    <t>FA-I_Hindi_pass</t>
+  </si>
+  <si>
+    <t>FA-I_English II</t>
+  </si>
+  <si>
+    <t>FA-I_English II_total</t>
+  </si>
+  <si>
+    <t>FA-I_English II_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Computer</t>
+  </si>
+  <si>
+    <t>FA-I_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-I_Computer_pass</t>
+  </si>
+  <si>
+    <t>FA-I_English I</t>
+  </si>
+  <si>
+    <t>FA-I_English I_total</t>
+  </si>
+  <si>
+    <t>FA-I_English I_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Maths</t>
+  </si>
+  <si>
+    <t>FA-I_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-I_Maths_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Drawing</t>
+  </si>
+  <si>
+    <t>FA-I_Drawing_total</t>
+  </si>
+  <si>
+    <t>FA-I_Drawing_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Moral Science</t>
+  </si>
+  <si>
+    <t>FA-I_Moral Science_total</t>
+  </si>
+  <si>
+    <t>FA-I_Moral Science_pass</t>
+  </si>
+  <si>
+    <t>FA-I_General Knowledge</t>
+  </si>
+  <si>
+    <t>FA-I_General Knowledge_total</t>
+  </si>
+  <si>
+    <t>FA-I_General Knowledge_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Assamese</t>
+  </si>
+  <si>
+    <t>FA-II_Assamese_total</t>
+  </si>
+  <si>
+    <t>FA-II_Assamese_pass</t>
+  </si>
+  <si>
+    <t>FA-II_EVS</t>
+  </si>
+  <si>
+    <t>FA-II_EVS_total</t>
+  </si>
+  <si>
+    <t>FA-II_EVS_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Hindi</t>
+  </si>
+  <si>
+    <t>FA-II_Hindi_total</t>
+  </si>
+  <si>
+    <t>FA-II_Hindi_pass</t>
+  </si>
+  <si>
+    <t>FA-II_English II</t>
+  </si>
+  <si>
+    <t>FA-II_English II_total</t>
+  </si>
+  <si>
+    <t>FA-II_English II_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Computer</t>
+  </si>
+  <si>
+    <t>FA-II_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-II_Computer_pass</t>
+  </si>
+  <si>
+    <t>FA-II_English I</t>
+  </si>
+  <si>
+    <t>FA-II_English I_total</t>
+  </si>
+  <si>
+    <t>FA-II_English I_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Maths</t>
+  </si>
+  <si>
+    <t>FA-II_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-II_Maths_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Drawing</t>
+  </si>
+  <si>
+    <t>FA-II_Drawing_total</t>
+  </si>
+  <si>
+    <t>FA-II_Drawing_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Moral Science</t>
+  </si>
+  <si>
+    <t>FA-II_Moral Science_total</t>
+  </si>
+  <si>
+    <t>FA-II_Moral Science_pass</t>
+  </si>
+  <si>
+    <t>FA-II_General Knowledge</t>
+  </si>
+  <si>
+    <t>FA-II_General Knowledge_total</t>
+  </si>
+  <si>
+    <t>FA-II_General Knowledge_pass</t>
+  </si>
+  <si>
+    <t>HY_Assamese</t>
+  </si>
+  <si>
+    <t>HY_Assamese_total</t>
+  </si>
+  <si>
+    <t>HY_Assamese_pass</t>
+  </si>
+  <si>
+    <t>HY_EVS</t>
+  </si>
+  <si>
+    <t>HY_EVS_total</t>
+  </si>
+  <si>
+    <t>HY_EVS_pass</t>
+  </si>
+  <si>
+    <t>HY_Hindi</t>
+  </si>
+  <si>
+    <t>HY_Hindi_total</t>
+  </si>
+  <si>
+    <t>HY_Hindi_pass</t>
+  </si>
+  <si>
+    <t>HY_English II</t>
+  </si>
+  <si>
+    <t>HY_English II_total</t>
+  </si>
+  <si>
+    <t>HY_English II_pass</t>
+  </si>
+  <si>
+    <t>HY_Computer</t>
+  </si>
+  <si>
+    <t>HY_Computer_total</t>
+  </si>
+  <si>
+    <t>HY_Computer_pass</t>
+  </si>
+  <si>
+    <t>HY_English I</t>
+  </si>
+  <si>
+    <t>HY_English I_total</t>
+  </si>
+  <si>
+    <t>HY_English I_pass</t>
+  </si>
+  <si>
+    <t>HY_Maths</t>
+  </si>
+  <si>
+    <t>HY_Maths_total</t>
+  </si>
+  <si>
+    <t>HY_Maths_pass</t>
+  </si>
+  <si>
+    <t>HY_Drawing</t>
+  </si>
+  <si>
+    <t>HY_Drawing_total</t>
+  </si>
+  <si>
+    <t>HY_Drawing_pass</t>
+  </si>
+  <si>
+    <t>HY_Moral Science</t>
+  </si>
+  <si>
+    <t>HY_Moral Science_total</t>
+  </si>
+  <si>
+    <t>HY_Moral Science_pass</t>
+  </si>
+  <si>
+    <t>HY_General Knowledge</t>
+  </si>
+  <si>
+    <t>HY_General Knowledge_total</t>
+  </si>
+  <si>
+    <t>HY_General Knowledge_pass</t>
   </si>
   <si>
     <t>Weightage Assamese</t>
